--- a/inst/features.xlsx
+++ b/inst/features.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuhorchak\Desktop\OPER782\Uhorchak_Analytic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuhorchak\Desktop\OPER782\Uhorchak_Analytic\RClean\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>Feature</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Data prep</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -704,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>52</v>
@@ -768,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>54</v>
@@ -800,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>55</v>
@@ -832,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>56</v>
@@ -924,7 +927,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>

--- a/inst/features.xlsx
+++ b/inst/features.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>Feature</t>
   </si>
@@ -56,21 +56,9 @@
     <t>Current or future version</t>
   </si>
   <si>
-    <t>Data input</t>
-  </si>
-  <si>
-    <t>User selects data to import from local file structure</t>
-  </si>
-  <si>
     <t>not started</t>
   </si>
   <si>
-    <t>User can select any dataset to imput for use with this tool</t>
-  </si>
-  <si>
-    <t>Dataset saved into R</t>
-  </si>
-  <si>
     <t>Visual inspection of data</t>
   </si>
   <si>
@@ -134,9 +122,6 @@
     <t>Write "clean" data to excel</t>
   </si>
   <si>
-    <t>Allow use to write the clean data to new excel file</t>
-  </si>
-  <si>
     <t>Clean data is saved into external file for future use</t>
   </si>
   <si>
@@ -155,9 +140,6 @@
     <t>Future</t>
   </si>
   <si>
-    <t>Future version will allow use to browse file structure to select data</t>
-  </si>
-  <si>
     <t>Allow the user to select what columns to either retain or remove from the current data</t>
   </si>
   <si>
@@ -206,9 +188,6 @@
     <t>Variables to encode</t>
   </si>
   <si>
-    <t>Dataset location</t>
-  </si>
-  <si>
     <t>Modified DF</t>
   </si>
   <si>
@@ -219,6 +198,24 @@
   </si>
   <si>
     <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>Modify DF cells</t>
+  </si>
+  <si>
+    <t>Allow user to write the clean data to new excel file</t>
+  </si>
+  <si>
+    <t>Allow users to click on a cell and change data values</t>
+  </si>
+  <si>
+    <t>single cell value modification</t>
+  </si>
+  <si>
+    <t>modified DF</t>
+  </si>
+  <si>
+    <t>change cells</t>
   </si>
 </sst>
 </file>
@@ -585,7 +582,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,352 +629,352 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/inst/features.xlsx
+++ b/inst/features.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>Feature</t>
   </si>
@@ -216,6 +219,12 @@
   </si>
   <si>
     <t>change cells</t>
+  </si>
+  <si>
+    <t>Some dataset</t>
+  </si>
+  <si>
+    <t>button click</t>
   </si>
 </sst>
 </file>
@@ -582,7 +591,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
@@ -678,7 +687,7 @@
         <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>54</v>
@@ -693,24 +702,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>54</v>
@@ -719,36 +728,36 @@
         <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>16</v>
@@ -774,7 +783,7 @@
         <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>54</v>
@@ -786,7 +795,7 @@
         <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -806,7 +815,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>54</v>
@@ -818,31 +827,33 @@
         <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>36</v>
@@ -883,60 +894,60 @@
     </row>
     <row r="10" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>36</v>
@@ -945,12 +956,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
@@ -958,17 +969,15 @@
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>36</v>
@@ -978,6 +987,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J12">
+    <sortState ref="A2:J12">
+      <sortCondition ref="C1:C12"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/features.xlsx
+++ b/inst/features.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>Feature</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Allow the user to impute missing values</t>
   </si>
   <si>
-    <t>Encode nominal to numerical</t>
-  </si>
-  <si>
     <t>Allow the user to create "dummy" variables to represent nominal data</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>button click</t>
+  </si>
+  <si>
+    <t>Create indicator variables</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,13 +649,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
@@ -681,19 +681,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>16</v>
@@ -713,19 +713,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>16</v>
@@ -745,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -777,19 +777,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>36</v>
@@ -809,19 +809,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>36</v>
@@ -841,19 +841,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>36</v>
@@ -864,26 +864,28 @@
     </row>
     <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>36</v>
@@ -897,7 +899,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
@@ -926,10 +928,10 @@
     </row>
     <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -938,16 +940,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>36</v>
@@ -971,13 +973,13 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>36</v>

--- a/inst/features.xlsx
+++ b/inst/features.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -591,7 +591,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -905,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
